--- a/data binding login.xlsx
+++ b/data binding login.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomyhidayat/Documents/OneDrive/comp/ACC/katalon_sourcecode/acc-implementation/accone-mobile/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6F38D7-F373-C146-8038-3FAE49651E1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="6975"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24980" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +33,6 @@
     <t>varExpectedResult</t>
   </si>
   <si>
-    <t>aya@4mail.top</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -46,13 +49,16 @@
   </si>
   <si>
     <t>Passwordsalah</t>
+  </si>
+  <si>
+    <t>Aya@4mail.top</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +71,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -105,10 +119,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -116,8 +131,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -125,6 +142,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +226,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,6 +278,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,22 +470,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="38" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,180 +496,185 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>81904067865</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>81904067865</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>81166</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>81904067865</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>81166</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{7D3AD413-A0D3-7C4C-8D69-D6CDCC69CF8A}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{45658C2D-2D99-364D-B816-84BEB3527DE8}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{0D88993B-ED26-B94B-9575-AD6CEA17EDBB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
